--- a/data/trans_orig/P1404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34760234-AFCA-4A43-BEA0-FE22A7B78562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8CE303-6F45-417B-98B1-B98F079AAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48AA73F8-E4DE-453E-BD4D-6CA8EEDD9F82}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23217391-4404-4020-BEE2-448DD0242246}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="657">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>94,74%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1858 +167,1849 @@
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>28,05%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>84,18%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>82,79%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F063706-71B2-4C54-A59A-80B0C565C95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F19689F-7772-48D0-88AF-12B2E5E9646B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3020,10 +3011,10 @@
         <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3032,13 +3023,13 @@
         <v>27840</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3047,13 +3038,13 @@
         <v>53774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3059,13 @@
         <v>292912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>308</v>
@@ -3083,13 +3074,13 @@
         <v>307572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>591</v>
@@ -3098,13 +3089,13 @@
         <v>600484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3151,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3178,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3193,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3208,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3214,13 @@
         <v>23489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3238,13 +3229,13 @@
         <v>22268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3253,13 +3244,13 @@
         <v>45757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3265,13 @@
         <v>335182</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>361</v>
@@ -3289,13 +3280,13 @@
         <v>349188</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>698</v>
@@ -3304,13 +3295,13 @@
         <v>684370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3357,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3384,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3399,7 +3390,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3414,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3420,13 @@
         <v>22969</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3444,13 +3435,13 @@
         <v>21291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -3459,13 +3450,13 @@
         <v>44260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3471,13 @@
         <v>180339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -3495,13 +3486,13 @@
         <v>186377</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -3510,13 +3501,13 @@
         <v>366716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3563,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3590,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3620,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3626,13 @@
         <v>15514</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -3650,13 +3641,13 @@
         <v>37337</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3665,13 +3656,13 @@
         <v>52851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3677,13 @@
         <v>255297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -3701,13 +3692,13 @@
         <v>240807</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>484</v>
@@ -3716,13 +3707,13 @@
         <v>496104</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,7 +3769,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3796,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3811,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3826,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3832,13 @@
         <v>39830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -3856,13 +3847,13 @@
         <v>69984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -3871,13 +3862,13 @@
         <v>109814</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3883,13 @@
         <v>575197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>553</v>
@@ -3907,13 +3898,13 @@
         <v>568235</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>1109</v>
@@ -3922,13 +3913,13 @@
         <v>1143432</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3975,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4002,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4017,7 +4008,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4032,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4038,13 @@
         <v>80154</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H33" s="7">
         <v>85</v>
@@ -4062,13 +4053,13 @@
         <v>92406</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>166</v>
@@ -4077,13 +4068,13 @@
         <v>172560</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4089,13 @@
         <v>663641</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -4113,13 +4104,13 @@
         <v>691105</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>1315</v>
@@ -4128,13 +4119,13 @@
         <v>1354746</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4199,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4223,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4238,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4244,13 @@
         <v>259712</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>335</v>
@@ -4268,13 +4259,13 @@
         <v>348181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>602</v>
@@ -4283,13 +4274,13 @@
         <v>607893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4295,13 @@
         <v>3016832</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
         <v>2962</v>
@@ -4319,28 +4310,28 @@
         <v>3031017</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>5909</v>
       </c>
       <c r="N38" s="7">
-        <v>6047847</v>
+        <v>6047848</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4373,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4396,7 +4387,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F7A42F-1666-4A41-A3FB-4CDAB976551A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A829099-9BDE-46A4-88F6-799850B76EFA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4437,7 +4428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,39 +4533,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,39 +4578,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,39 +4623,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,39 +4668,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4777,13 +4768,13 @@
         <v>66698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -4792,13 +4783,13 @@
         <v>82128</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>130</v>
@@ -4807,13 +4798,13 @@
         <v>148826</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4819,13 @@
         <v>437421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>406</v>
@@ -4843,13 +4834,13 @@
         <v>441637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>821</v>
@@ -4858,13 +4849,13 @@
         <v>879058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4929,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4953,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4983,13 +4974,13 @@
         <v>34636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4998,13 +4989,13 @@
         <v>44842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5013,13 +5004,13 @@
         <v>79478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5025,13 @@
         <v>289410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>276</v>
@@ -5049,13 +5040,13 @@
         <v>296178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>562</v>
@@ -5064,13 +5055,13 @@
         <v>585588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5144,7 +5135,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5159,7 +5150,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5174,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5180,13 @@
         <v>72930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5204,13 +5195,13 @@
         <v>97933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -5219,13 +5210,13 @@
         <v>170862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5231,13 @@
         <v>595790</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>534</v>
@@ -5255,13 +5246,13 @@
         <v>578263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>1095</v>
@@ -5270,13 +5261,13 @@
         <v>1174054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,7 +5323,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5350,7 +5341,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5365,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5380,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5386,13 @@
         <v>34993</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -5410,13 +5401,13 @@
         <v>48270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -5425,13 +5416,13 @@
         <v>83263</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5437,13 @@
         <v>177625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>166</v>
@@ -5461,13 +5452,13 @@
         <v>171321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>330</v>
@@ -5476,13 +5467,13 @@
         <v>348946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5529,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5556,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5586,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5592,13 @@
         <v>38145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5616,13 +5607,13 @@
         <v>43540</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -5631,13 +5622,13 @@
         <v>81685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5643,13 @@
         <v>235836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -5667,13 +5658,13 @@
         <v>234556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>450</v>
@@ -5682,13 +5673,13 @@
         <v>470392</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,7 +5735,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5762,7 +5753,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5792,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5798,13 @@
         <v>74567</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -5822,13 +5813,13 @@
         <v>79318</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -5837,13 +5828,13 @@
         <v>153885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5849,13 @@
         <v>588221</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H30" s="7">
         <v>567</v>
@@ -5873,13 +5864,13 @@
         <v>614535</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M30" s="7">
         <v>1118</v>
@@ -5888,13 +5879,13 @@
         <v>1202756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,7 +5941,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5968,7 +5959,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5983,7 +5974,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5998,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6004,13 @@
         <v>66706</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H33" s="7">
         <v>87</v>
@@ -6028,13 +6019,13 @@
         <v>94809</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M33" s="7">
         <v>147</v>
@@ -6043,13 +6034,13 @@
         <v>161515</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6055,13 @@
         <v>712392</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H34" s="7">
         <v>669</v>
@@ -6079,13 +6070,13 @@
         <v>727769</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M34" s="7">
         <v>1326</v>
@@ -6094,13 +6085,13 @@
         <v>1440161</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6165,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6189,7 +6180,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6204,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6210,13 @@
         <v>388674</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H37" s="7">
         <v>452</v>
@@ -6234,13 +6225,13 @@
         <v>490840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>802</v>
@@ -6249,13 +6240,13 @@
         <v>879514</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6261,13 @@
         <v>3036696</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H38" s="7">
         <v>2844</v>
@@ -6285,13 +6276,13 @@
         <v>3064258</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>5702</v>
@@ -6300,13 +6291,13 @@
         <v>6100955</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,7 +6353,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6386,7 +6377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3021C5-E71F-45CA-A829-45A922550EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3AAE4-45C6-424A-B96C-41DE0BAF1D1D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6403,7 +6394,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6516,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6531,7 +6522,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6546,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6552,13 @@
         <v>37306</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -6576,13 +6567,13 @@
         <v>39652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6591,13 +6582,13 @@
         <v>76958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6603,13 @@
         <v>256455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H6" s="7">
         <v>241</v>
@@ -6627,13 +6618,13 @@
         <v>249051</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>473</v>
@@ -6642,13 +6633,13 @@
         <v>505506</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6737,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6767,13 +6758,13 @@
         <v>57668</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6782,13 +6773,13 @@
         <v>74067</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -6797,13 +6788,13 @@
         <v>131734</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6809,13 @@
         <v>444907</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>420</v>
@@ -6833,13 +6824,13 @@
         <v>449017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>838</v>
@@ -6848,13 +6839,13 @@
         <v>893925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6934,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6958,7 +6949,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6964,13 @@
         <v>41106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -6988,13 +6979,13 @@
         <v>49860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -7003,13 +6994,13 @@
         <v>90966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,13 +7015,13 @@
         <v>277459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7039,13 +7030,13 @@
         <v>286449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>578</v>
@@ -7054,13 +7045,13 @@
         <v>563908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,7 +7107,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7134,7 +7125,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7149,7 +7140,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7164,7 +7155,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7170,13 @@
         <v>46467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -7194,13 +7185,13 @@
         <v>56333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7209,13 +7200,13 @@
         <v>102801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7221,13 @@
         <v>323497</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>308</v>
@@ -7245,13 +7236,13 @@
         <v>330950</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M18" s="7">
         <v>614</v>
@@ -7260,13 +7251,13 @@
         <v>654446</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,7 +7313,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7340,7 +7331,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7355,7 +7346,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7370,7 +7361,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7376,13 @@
         <v>27395</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -7400,13 +7391,13 @@
         <v>32234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>248</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -7415,13 +7406,13 @@
         <v>59629</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7427,13 @@
         <v>183826</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -7451,13 +7442,13 @@
         <v>186353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -7466,13 +7457,13 @@
         <v>370179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7519,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7546,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7561,7 +7552,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7591,13 +7582,13 @@
         <v>27356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -7606,13 +7597,13 @@
         <v>29397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -7621,13 +7612,13 @@
         <v>56753</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7633,13 @@
         <v>235767</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>195</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -7657,13 +7648,13 @@
         <v>243718</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>467</v>
@@ -7672,13 +7663,13 @@
         <v>479485</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,7 +7725,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7752,7 +7743,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7782,7 +7773,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7788,13 @@
         <v>72062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -7812,13 +7803,13 @@
         <v>72567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>127</v>
@@ -7827,13 +7818,13 @@
         <v>144628</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7839,13 @@
         <v>584496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>317</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>583</v>
@@ -7863,13 +7854,13 @@
         <v>618727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>1099</v>
@@ -7878,13 +7869,13 @@
         <v>1203224</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,7 +7931,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7958,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7973,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7988,7 +7979,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,13 +7994,13 @@
         <v>79438</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H33" s="7">
         <v>95</v>
@@ -8018,13 +8009,13 @@
         <v>115228</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M33" s="7">
         <v>172</v>
@@ -8033,13 +8024,13 @@
         <v>194667</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8045,13 @@
         <v>699145</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -8069,13 +8060,13 @@
         <v>710939</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>469</v>
+        <v>293</v>
       </c>
       <c r="M34" s="7">
         <v>1333</v>
@@ -8084,13 +8075,13 @@
         <v>1410083</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,7 +8155,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8179,7 +8170,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8194,7 +8185,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8200,13 @@
         <v>388798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H37" s="7">
         <v>411</v>
@@ -8224,13 +8215,13 @@
         <v>469338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>476</v>
+        <v>305</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M37" s="7">
         <v>792</v>
@@ -8239,13 +8230,13 @@
         <v>858136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8251,13 @@
         <v>3005552</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H38" s="7">
         <v>2927</v>
@@ -8275,13 +8266,13 @@
         <v>3075204</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>485</v>
+        <v>313</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M38" s="7">
         <v>5777</v>
@@ -8290,13 +8281,13 @@
         <v>6080756</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,7 +8343,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8376,7 +8367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD0194C-A077-4ADB-B952-3818FC5B30EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8A831-FE30-4217-AB4F-0BFBEAA41189}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8393,7 +8384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8506,7 +8497,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8521,7 +8512,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8536,7 +8527,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8551,13 +8542,13 @@
         <v>36411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -8566,13 +8557,13 @@
         <v>42770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -8581,13 +8572,13 @@
         <v>79181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,13 +8593,13 @@
         <v>223887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H6" s="7">
         <v>447</v>
@@ -8617,13 +8608,13 @@
         <v>228633</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>726</v>
@@ -8632,13 +8623,13 @@
         <v>452519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,7 +8703,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8727,7 +8718,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8742,7 +8733,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8757,13 +8748,13 @@
         <v>61493</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H9" s="7">
         <v>111</v>
@@ -8772,13 +8763,13 @@
         <v>73341</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M9" s="7">
         <v>169</v>
@@ -8787,13 +8778,13 @@
         <v>134834</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8808,13 +8799,13 @@
         <v>455793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="H10" s="7">
         <v>603</v>
@@ -8823,13 +8814,13 @@
         <v>479282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -8838,13 +8829,13 @@
         <v>935075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8918,7 +8909,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8933,7 +8924,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8948,7 +8939,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8963,13 +8954,13 @@
         <v>49024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -8978,13 +8969,13 @@
         <v>62947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -8993,13 +8984,13 @@
         <v>111971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9014,13 +9005,13 @@
         <v>272633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -9029,13 +9020,13 @@
         <v>310337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>719</v>
@@ -9044,13 +9035,13 @@
         <v>582969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,7 +9097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9124,7 +9115,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9139,7 +9130,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9154,7 +9145,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9169,13 +9160,13 @@
         <v>53533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -9184,13 +9175,13 @@
         <v>67738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -9199,13 +9190,13 @@
         <v>121271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9220,13 +9211,13 @@
         <v>268707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>555</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>464</v>
@@ -9235,13 +9226,13 @@
         <v>360818</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M18" s="7">
         <v>695</v>
@@ -9250,13 +9241,13 @@
         <v>629525</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9312,7 +9303,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9330,7 +9321,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9339,13 +9330,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>562</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9354,13 +9345,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9375,13 +9366,13 @@
         <v>40945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H21" s="7">
         <v>144</v>
@@ -9390,13 +9381,13 @@
         <v>58711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M21" s="7">
         <v>213</v>
@@ -9405,13 +9396,13 @@
         <v>99656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,13 +9417,13 @@
         <v>155803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -9441,13 +9432,13 @@
         <v>171830</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>555</v>
@@ -9456,13 +9447,13 @@
         <v>327632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,7 +9509,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9536,7 +9527,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9545,13 +9536,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9560,13 +9551,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>587</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,10 +9572,10 @@
         <v>58694</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>589</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>590</v>
@@ -9638,7 +9629,7 @@
         <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>599</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>349</v>
@@ -9647,13 +9638,13 @@
         <v>226317</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -9662,13 +9653,13 @@
         <v>444846</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,7 +9715,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9742,7 +9733,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9772,7 +9763,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,13 +9778,13 @@
         <v>102505</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -9802,13 +9793,13 @@
         <v>238952</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -9817,13 +9808,13 @@
         <v>341456</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,13 +9829,13 @@
         <v>519331</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>618</v>
+        <v>307</v>
       </c>
       <c r="H30" s="7">
         <v>751</v>
@@ -9853,13 +9844,13 @@
         <v>562297</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M30" s="7">
         <v>1227</v>
@@ -9868,13 +9859,13 @@
         <v>1081629</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9930,7 +9921,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9948,7 +9939,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9957,13 +9948,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9972,13 +9963,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>543</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9993,13 +9984,13 @@
         <v>90917</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>247</v>
+        <v>625</v>
       </c>
       <c r="H33" s="7">
         <v>169</v>
@@ -10008,13 +9999,13 @@
         <v>121889</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="M33" s="7">
         <v>276</v>
@@ -10023,13 +10014,13 @@
         <v>212806</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10044,13 +10035,13 @@
         <v>768511</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>254</v>
+        <v>630</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H34" s="7">
         <v>891</v>
@@ -10059,13 +10050,13 @@
         <v>743147</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="M34" s="7">
         <v>1546</v>
@@ -10074,13 +10065,13 @@
         <v>1511658</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10154,7 +10145,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10178,7 +10169,7 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>641</v>
@@ -10202,10 +10193,10 @@
         <v>643</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="H37" s="7">
         <v>1073</v>
@@ -10214,10 +10205,10 @@
         <v>714935</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>647</v>
@@ -10256,7 +10247,7 @@
         <v>652</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>653</v>
+        <v>345</v>
       </c>
       <c r="H38" s="7">
         <v>4276</v>
@@ -10265,13 +10256,13 @@
         <v>3082661</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="M38" s="7">
         <v>7015</v>
@@ -10280,13 +10271,13 @@
         <v>5965853</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>659</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10342,7 +10333,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8CE303-6F45-417B-98B1-B98F079AAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C41CA7-3689-4EF8-8210-2B4D3A78061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23217391-4404-4020-BEE2-448DD0242246}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF4480D7-7794-4856-A8B8-2F35E9641175}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="661">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1921 +95,1933 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,3%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>84,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F19689F-7772-48D0-88AF-12B2E5E9646B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DF9543-4F6A-4F03-A630-3C78F6FE5A73}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3423,10 +3435,10 @@
         <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3435,13 +3447,13 @@
         <v>21291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -3450,13 +3462,13 @@
         <v>44260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3483,13 @@
         <v>180339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -3486,13 +3498,13 @@
         <v>186377</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -3501,13 +3513,13 @@
         <v>366716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3575,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3581,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3611,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3638,13 @@
         <v>15514</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -3641,13 +3653,13 @@
         <v>37337</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3656,13 +3668,13 @@
         <v>52851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3689,13 @@
         <v>255297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -3692,13 +3704,13 @@
         <v>240807</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>484</v>
@@ -3707,13 +3719,13 @@
         <v>496104</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>109814</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3895,13 @@
         <v>575197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>553</v>
@@ -3898,13 +3910,13 @@
         <v>568235</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M30" s="7">
         <v>1109</v>
@@ -3913,13 +3925,13 @@
         <v>1143432</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3987,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4023,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4050,13 @@
         <v>80154</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>85</v>
@@ -4053,13 +4065,13 @@
         <v>92406</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>166</v>
@@ -4071,10 +4083,10 @@
         <v>107</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4101,13 @@
         <v>663641</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -4104,13 +4116,13 @@
         <v>691105</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7">
         <v>1315</v>
@@ -4119,13 +4131,13 @@
         <v>1354746</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,7 +4211,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4214,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4229,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4256,13 @@
         <v>259712</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>335</v>
@@ -4259,13 +4271,13 @@
         <v>348181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>602</v>
@@ -4274,13 +4286,13 @@
         <v>607893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,16 +4304,16 @@
         <v>2947</v>
       </c>
       <c r="D38" s="7">
-        <v>3016832</v>
+        <v>3016831</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H38" s="7">
         <v>2962</v>
@@ -4310,13 +4322,13 @@
         <v>3031017</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>5909</v>
@@ -4325,13 +4337,13 @@
         <v>6047848</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,7 +4355,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4387,7 +4399,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4411,7 +4423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A829099-9BDE-46A4-88F6-799850B76EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B81810-1294-42C5-A468-8565A35B3055}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4428,7 +4440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4533,39 +4545,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,39 +4590,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,39 +4635,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,39 +4680,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4768,13 +4780,13 @@
         <v>66698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -4783,13 +4795,13 @@
         <v>82128</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>130</v>
@@ -4798,13 +4810,13 @@
         <v>148826</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4831,13 @@
         <v>437421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>406</v>
@@ -4834,13 +4846,13 @@
         <v>441637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>821</v>
@@ -4849,13 +4861,13 @@
         <v>879058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4941,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4944,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4974,13 +4986,13 @@
         <v>34636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4989,13 +5001,13 @@
         <v>44842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5004,13 +5016,13 @@
         <v>79478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5037,13 @@
         <v>289410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>276</v>
@@ -5040,13 +5052,13 @@
         <v>296178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>562</v>
@@ -5055,13 +5067,13 @@
         <v>585588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5177,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5192,13 @@
         <v>72930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5195,13 +5207,13 @@
         <v>97933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -5210,10 +5222,10 @@
         <v>170862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>251</v>
@@ -5237,7 +5249,7 @@
         <v>253</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>534</v>
@@ -5246,13 +5258,13 @@
         <v>578263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>1095</v>
@@ -5261,13 +5273,13 @@
         <v>1174054</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5356,7 +5368,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5386,13 +5398,13 @@
         <v>34993</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -5401,13 +5413,13 @@
         <v>48270</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -5416,13 +5428,13 @@
         <v>83263</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5449,13 @@
         <v>177625</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>166</v>
@@ -5452,13 +5464,13 @@
         <v>171321</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>330</v>
@@ -5467,13 +5479,13 @@
         <v>348946</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5547,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5577,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5604,13 @@
         <v>38145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5607,13 +5619,13 @@
         <v>43540</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -5622,13 +5634,13 @@
         <v>81685</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5655,7 @@
         <v>235836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>289</v>
@@ -5783,7 +5795,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5831,7 @@
         <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -5828,13 +5840,13 @@
         <v>153885</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5861,13 @@
         <v>588221</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H30" s="7">
         <v>567</v>
@@ -5864,13 +5876,13 @@
         <v>614535</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M30" s="7">
         <v>1118</v>
@@ -5879,13 +5891,13 @@
         <v>1202756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>314</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,7 +5953,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5959,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5974,7 +5986,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5989,7 +6001,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6016,13 @@
         <v>66706</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H33" s="7">
         <v>87</v>
@@ -6019,13 +6031,13 @@
         <v>94809</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M33" s="7">
         <v>147</v>
@@ -6034,13 +6046,13 @@
         <v>161515</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6067,13 @@
         <v>712392</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H34" s="7">
         <v>669</v>
@@ -6070,13 +6082,13 @@
         <v>727769</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M34" s="7">
         <v>1326</v>
@@ -6085,13 +6097,13 @@
         <v>1440161</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6180,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6195,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6222,13 @@
         <v>388674</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H37" s="7">
         <v>452</v>
@@ -6225,13 +6237,13 @@
         <v>490840</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>802</v>
@@ -6240,13 +6252,13 @@
         <v>879514</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6273,13 @@
         <v>3036696</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H38" s="7">
         <v>2844</v>
@@ -6276,13 +6288,13 @@
         <v>3064258</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>5702</v>
@@ -6291,13 +6303,13 @@
         <v>6100955</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,7 +6365,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6377,7 +6389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3AAE4-45C6-424A-B96C-41DE0BAF1D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529CC7FF-645C-4B6F-8170-8387C1CEBD96}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6394,7 +6406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6507,7 +6519,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6522,7 +6534,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6537,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6564,13 @@
         <v>37306</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -6567,13 +6579,13 @@
         <v>39652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6582,13 +6594,13 @@
         <v>76958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6615,13 @@
         <v>256455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>359</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>241</v>
@@ -6618,13 +6630,13 @@
         <v>249051</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>473</v>
@@ -6633,13 +6645,13 @@
         <v>505506</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,7 +6725,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6728,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6758,13 +6770,13 @@
         <v>57668</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6773,13 +6785,13 @@
         <v>74067</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -6788,13 +6800,13 @@
         <v>131734</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6821,13 @@
         <v>444907</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>420</v>
@@ -6824,13 +6836,13 @@
         <v>449017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>838</v>
@@ -6839,13 +6851,13 @@
         <v>893925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,7 +6946,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6949,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6976,13 @@
         <v>41106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -6979,13 +6991,13 @@
         <v>49860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -6994,13 +7006,13 @@
         <v>90966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7027,13 @@
         <v>277459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7030,13 +7042,13 @@
         <v>286449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>578</v>
@@ -7045,13 +7057,13 @@
         <v>563908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,7 +7137,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7155,7 +7167,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7182,13 @@
         <v>46467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -7185,13 +7197,13 @@
         <v>56333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7200,13 +7212,13 @@
         <v>102801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7233,13 @@
         <v>323497</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>308</v>
@@ -7236,13 +7248,13 @@
         <v>330950</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>614</v>
@@ -7251,13 +7263,13 @@
         <v>654446</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7346,7 +7358,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7361,7 +7373,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7388,13 @@
         <v>27395</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -7391,13 +7403,13 @@
         <v>32234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -7406,13 +7418,13 @@
         <v>59629</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7439,13 @@
         <v>183826</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -7442,13 +7454,13 @@
         <v>186353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -7457,13 +7469,13 @@
         <v>370179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7531,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7537,7 +7549,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7552,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7582,13 +7594,13 @@
         <v>27356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -7597,13 +7609,13 @@
         <v>29397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>233</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -7612,13 +7624,13 @@
         <v>56753</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7645,13 @@
         <v>235767</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -7648,13 +7660,13 @@
         <v>243718</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>467</v>
@@ -7663,13 +7675,13 @@
         <v>479485</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7755,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7788,13 +7800,13 @@
         <v>72062</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -7803,13 +7815,13 @@
         <v>72567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>43</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>127</v>
@@ -7818,13 +7830,13 @@
         <v>144628</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7851,13 @@
         <v>584496</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>583</v>
@@ -7854,13 +7866,13 @@
         <v>618727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>1099</v>
@@ -7869,13 +7881,13 @@
         <v>1203224</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,7 +7943,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7964,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7979,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +8006,13 @@
         <v>79438</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H33" s="7">
         <v>95</v>
@@ -8009,13 +8021,13 @@
         <v>115228</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M33" s="7">
         <v>172</v>
@@ -8024,13 +8036,13 @@
         <v>194667</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8057,13 @@
         <v>699145</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7">
         <v>660</v>
@@ -8060,10 +8072,10 @@
         <v>710939</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>307</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>293</v>
@@ -8075,13 +8087,13 @@
         <v>1410083</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,7 +8167,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8170,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8185,7 +8197,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8212,13 @@
         <v>388798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>352</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H37" s="7">
         <v>411</v>
@@ -8215,13 +8227,13 @@
         <v>469338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>305</v>
+        <v>479</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M37" s="7">
         <v>792</v>
@@ -8230,13 +8242,13 @@
         <v>858136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,13 +8263,13 @@
         <v>3005552</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>491</v>
+        <v>359</v>
       </c>
       <c r="H38" s="7">
         <v>2927</v>
@@ -8266,13 +8278,13 @@
         <v>3075204</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>313</v>
+        <v>487</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>5777</v>
@@ -8281,13 +8293,13 @@
         <v>6080756</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,7 +8355,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8367,7 +8379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8A831-FE30-4217-AB4F-0BFBEAA41189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C998E579-6946-433D-A238-8C46FCC75D99}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8384,7 +8396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8497,7 +8509,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8512,7 +8524,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8527,7 +8539,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8542,13 +8554,13 @@
         <v>36411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -8557,13 +8569,13 @@
         <v>42770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -8572,13 +8584,13 @@
         <v>79181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,13 +8605,13 @@
         <v>223887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H6" s="7">
         <v>447</v>
@@ -8608,13 +8620,13 @@
         <v>228633</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M6" s="7">
         <v>726</v>
@@ -8623,13 +8635,13 @@
         <v>452519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8718,7 +8730,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8733,7 +8745,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,13 +8760,13 @@
         <v>61493</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H9" s="7">
         <v>111</v>
@@ -8763,13 +8775,13 @@
         <v>73341</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M9" s="7">
         <v>169</v>
@@ -8778,13 +8790,13 @@
         <v>134834</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8799,13 +8811,13 @@
         <v>455793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>603</v>
@@ -8814,13 +8826,13 @@
         <v>479282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -8829,13 +8841,13 @@
         <v>935075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8924,7 +8936,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8939,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8954,13 +8966,13 @@
         <v>49024</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -8969,13 +8981,13 @@
         <v>62947</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -8984,13 +8996,13 @@
         <v>111971</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9005,13 +9017,13 @@
         <v>272633</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -9020,13 +9032,13 @@
         <v>310337</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>719</v>
@@ -9035,10 +9047,10 @@
         <v>582969</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>546</v>
@@ -9145,7 +9157,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9163,7 +9175,7 @@
         <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>549</v>
@@ -9217,7 +9229,7 @@
         <v>557</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>464</v>
@@ -9321,7 +9333,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9330,13 +9342,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9345,13 +9357,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,13 +9378,13 @@
         <v>40945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H21" s="7">
         <v>144</v>
@@ -9381,13 +9393,13 @@
         <v>58711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M21" s="7">
         <v>213</v>
@@ -9396,13 +9408,13 @@
         <v>99656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,13 +9429,13 @@
         <v>155803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -9432,13 +9444,13 @@
         <v>171830</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>555</v>
@@ -9447,13 +9459,13 @@
         <v>327632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9509,7 +9521,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9527,7 +9539,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9542,7 +9554,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9551,13 +9563,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9572,13 +9584,13 @@
         <v>58694</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>591</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
@@ -9587,13 +9599,13 @@
         <v>48587</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>591</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>208</v>
@@ -9602,13 +9614,13 @@
         <v>107281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9623,13 +9635,13 @@
         <v>218529</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>349</v>
@@ -9638,13 +9650,13 @@
         <v>226317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -9653,13 +9665,13 @@
         <v>444846</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9763,7 +9775,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,13 +9790,13 @@
         <v>102505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -9793,13 +9805,13 @@
         <v>238952</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -9808,13 +9820,13 @@
         <v>341456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9829,13 +9841,13 @@
         <v>519331</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>307</v>
+        <v>474</v>
       </c>
       <c r="H30" s="7">
         <v>751</v>
@@ -9844,13 +9856,13 @@
         <v>562297</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M30" s="7">
         <v>1227</v>
@@ -9859,13 +9871,13 @@
         <v>1081629</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9921,7 +9933,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9939,7 +9951,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9954,7 +9966,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9969,7 +9981,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9984,13 +9996,13 @@
         <v>90917</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H33" s="7">
         <v>169</v>
@@ -9999,13 +10011,13 @@
         <v>121889</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M33" s="7">
         <v>276</v>
@@ -10014,13 +10026,13 @@
         <v>212806</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>629</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10035,13 +10047,13 @@
         <v>768511</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H34" s="7">
         <v>891</v>
@@ -10050,13 +10062,13 @@
         <v>743147</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M34" s="7">
         <v>1546</v>
@@ -10065,13 +10077,13 @@
         <v>1511658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10145,7 +10157,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10154,13 +10166,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10169,13 +10181,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10190,13 +10202,13 @@
         <v>493522</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>339</v>
+        <v>645</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H37" s="7">
         <v>1073</v>
@@ -10205,13 +10217,13 @@
         <v>714935</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M37" s="7">
         <v>1701</v>
@@ -10220,13 +10232,13 @@
         <v>1208457</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10241,13 +10253,13 @@
         <v>2883192</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>345</v>
+        <v>655</v>
       </c>
       <c r="H38" s="7">
         <v>4276</v>
@@ -10256,13 +10268,13 @@
         <v>3082661</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="M38" s="7">
         <v>7015</v>
@@ -10271,13 +10283,13 @@
         <v>5965853</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10333,7 +10345,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692CEB7C-2D6F-4656-8BA7-7F511C4E7F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A7ACA1-9BE5-44D9-882B-A128E9BC151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A486AD57-3A4B-4DFA-BF0B-24678B4686F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{610B125C-EF3D-49ED-A77C-614CE19FFEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="602">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -569,7 +569,58 @@
     <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>13,23%</t>
@@ -680,1150 +731,1120 @@
     <t>90,57%</t>
   </si>
   <si>
-    <t>10,91%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BC5008-CF14-4C09-B8DB-46F770C9F36D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939309C6-5B70-4D08-8F1F-F5DC0A3D4CE5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3647,7 +3668,7 @@
         <v>2947</v>
       </c>
       <c r="D29" s="7">
-        <v>3016832</v>
+        <v>3016831</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>165</v>
@@ -3662,7 +3683,7 @@
         <v>2962</v>
       </c>
       <c r="I29" s="7">
-        <v>3031017</v>
+        <v>3031016</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>168</v>
@@ -3677,7 +3698,7 @@
         <v>5909</v>
       </c>
       <c r="N29" s="7">
-        <v>6047847</v>
+        <v>6047848</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>171</v>
@@ -3698,7 +3719,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3713,7 +3734,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3728,7 +3749,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3766,7 +3787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AC6186-36CF-4908-9BA7-22D8D1990D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FAE92E-0E4F-49D8-BD24-9E522E7F0FE0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3884,43 +3905,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28638</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36001</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="N4" s="7">
+        <v>64639</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,43 +3956,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="D5" s="7">
+        <v>266100</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="I5" s="7">
+        <v>251244</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="N5" s="7">
+        <v>517344</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,43 +4007,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4066,13 @@
         <v>66698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4042,13 +4081,13 @@
         <v>82128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -4057,13 +4096,13 @@
         <v>148826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4117,13 @@
         <v>437421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -4093,13 +4132,13 @@
         <v>441637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>821</v>
@@ -4108,13 +4147,13 @@
         <v>879058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4221,13 @@
         <v>34636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4197,13 +4236,13 @@
         <v>44842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4212,13 +4251,13 @@
         <v>79478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4272,13 @@
         <v>289410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -4248,13 +4287,13 @@
         <v>296178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>562</v>
@@ -4263,13 +4302,13 @@
         <v>585588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,49 +4370,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>72930</v>
+        <v>44292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>97933</v>
+        <v>61931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>170862</v>
+        <v>106223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,49 +4421,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="D14" s="7">
-        <v>595790</v>
+        <v>329690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>534</v>
+        <v>310</v>
       </c>
       <c r="I14" s="7">
-        <v>578263</v>
+        <v>327020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>1095</v>
+        <v>615</v>
       </c>
       <c r="N14" s="7">
-        <v>1174054</v>
+        <v>656710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4448,10 +4487,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4463,10 +4502,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4492,13 +4531,13 @@
         <v>34993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4507,13 +4546,13 @@
         <v>48270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -4522,13 +4561,13 @@
         <v>83263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4582,13 @@
         <v>177625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -4558,13 +4597,13 @@
         <v>171321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>330</v>
@@ -4573,13 +4612,13 @@
         <v>348946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4686,13 @@
         <v>38145</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -4662,13 +4701,13 @@
         <v>43540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -4677,13 +4716,13 @@
         <v>81685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4737,13 @@
         <v>235836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>226</v>
@@ -4713,10 +4752,10 @@
         <v>234556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>60</v>
@@ -4728,13 +4767,13 @@
         <v>470392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4841,13 @@
         <v>74567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4817,13 +4856,13 @@
         <v>79318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -4835,10 +4874,10 @@
         <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4892,13 @@
         <v>588221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>567</v>
@@ -4868,13 +4907,13 @@
         <v>614535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1118</v>
@@ -4886,10 +4925,10 @@
         <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4996,13 @@
         <v>66706</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -4972,13 +5011,13 @@
         <v>94809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -4987,13 +5026,13 @@
         <v>161515</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5047,13 @@
         <v>712392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -5023,13 +5062,13 @@
         <v>727769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1326</v>
@@ -5038,13 +5077,13 @@
         <v>1440161</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5151,13 @@
         <v>388674</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>452</v>
@@ -5127,13 +5166,13 @@
         <v>490840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>802</v>
@@ -5142,13 +5181,13 @@
         <v>879514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5202,13 @@
         <v>3036696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>2844</v>
@@ -5178,13 +5217,13 @@
         <v>3064258</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>5702</v>
@@ -5193,13 +5232,13 @@
         <v>6100955</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8671F68-543D-4E3D-9488-3839A67609E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9613763D-A028-4112-879D-3EA162C1F6C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,7 +5335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5403,13 +5442,13 @@
         <v>37306</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5418,13 +5457,13 @@
         <v>39652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -5433,13 +5472,13 @@
         <v>76958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5493,13 @@
         <v>256455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>241</v>
@@ -5469,10 +5508,10 @@
         <v>249051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>172</v>
@@ -5484,13 +5523,13 @@
         <v>505506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5597,13 @@
         <v>57668</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5573,13 +5612,13 @@
         <v>74067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5588,13 +5627,13 @@
         <v>131734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5648,13 @@
         <v>444907</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -5624,13 +5663,13 @@
         <v>449017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>838</v>
@@ -5639,13 +5678,13 @@
         <v>893925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5752,13 @@
         <v>41106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5728,13 +5767,13 @@
         <v>49860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -5743,13 +5782,13 @@
         <v>90966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5803,13 @@
         <v>277459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -5779,10 +5818,10 @@
         <v>286449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>134</v>
@@ -5794,13 +5833,13 @@
         <v>563908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5907,13 @@
         <v>46467</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -5883,13 +5922,13 @@
         <v>56333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -5898,13 +5937,13 @@
         <v>102801</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5958,13 @@
         <v>323497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>308</v>
@@ -5934,13 +5973,13 @@
         <v>330950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>614</v>
@@ -5949,13 +5988,13 @@
         <v>654446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6062,13 @@
         <v>27395</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -6038,13 +6077,13 @@
         <v>32234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -6053,13 +6092,13 @@
         <v>59629</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6113,13 @@
         <v>183826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -6089,13 +6128,13 @@
         <v>186353</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>375</v>
@@ -6104,13 +6143,13 @@
         <v>370179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6217,13 @@
         <v>27356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -6193,13 +6232,13 @@
         <v>29397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -6208,13 +6247,13 @@
         <v>56753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6268,13 @@
         <v>235767</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -6244,13 +6283,13 @@
         <v>243718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>467</v>
@@ -6259,13 +6298,13 @@
         <v>479485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6372,13 @@
         <v>72062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -6348,13 +6387,13 @@
         <v>72567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -6363,13 +6402,13 @@
         <v>144628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6423,13 @@
         <v>584496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -6399,13 +6438,13 @@
         <v>618727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>1099</v>
@@ -6414,13 +6453,13 @@
         <v>1203224</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6527,13 @@
         <v>79438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -6503,13 +6542,13 @@
         <v>115228</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -6518,13 +6557,13 @@
         <v>194667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,10 +6578,10 @@
         <v>699145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>64</v>
@@ -6554,13 +6593,13 @@
         <v>710939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>1333</v>
@@ -6569,13 +6608,13 @@
         <v>1410083</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6682,13 @@
         <v>388798</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>411</v>
@@ -6658,13 +6697,13 @@
         <v>469338</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>792</v>
@@ -6673,13 +6712,13 @@
         <v>858136</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6733,13 @@
         <v>3005552</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>2927</v>
@@ -6709,13 +6748,13 @@
         <v>3075204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>5777</v>
@@ -6724,13 +6763,13 @@
         <v>6080756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AA1465-25A5-4260-B200-A248893097EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10CC09D-D36C-4146-9BDD-905E1FF37B7E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6827,7 +6866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6931,46 +6970,46 @@
         <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>36411</v>
+        <v>39867</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="H4" s="7">
         <v>91</v>
       </c>
       <c r="I4" s="7">
-        <v>42770</v>
+        <v>43999</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>295</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>143</v>
       </c>
       <c r="N4" s="7">
-        <v>79181</v>
+        <v>83866</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,46 +7021,46 @@
         <v>279</v>
       </c>
       <c r="D5" s="7">
-        <v>223887</v>
+        <v>271576</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>447</v>
       </c>
       <c r="I5" s="7">
-        <v>228633</v>
+        <v>245636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>726</v>
       </c>
       <c r="N5" s="7">
-        <v>452519</v>
+        <v>517211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,7 +7072,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7048,7 +7087,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7063,7 +7102,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7086,46 +7125,46 @@
         <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>61493</v>
+        <v>58441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>467</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
       </c>
       <c r="I7" s="7">
-        <v>73341</v>
+        <v>67774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>468</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>470</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
       </c>
       <c r="N7" s="7">
-        <v>134834</v>
+        <v>126215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,46 +7176,46 @@
         <v>322</v>
       </c>
       <c r="D8" s="7">
-        <v>455793</v>
+        <v>458088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>474</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>603</v>
       </c>
       <c r="I8" s="7">
-        <v>479282</v>
+        <v>445395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>477</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>925</v>
       </c>
       <c r="N8" s="7">
-        <v>935075</v>
+        <v>903483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,7 +7227,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>517286</v>
+        <v>516529</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7203,7 +7242,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552623</v>
+        <v>513169</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7218,7 +7257,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1069909</v>
+        <v>1029698</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7241,46 +7280,46 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>49024</v>
+        <v>46795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
       </c>
       <c r="I10" s="7">
-        <v>62947</v>
+        <v>58317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>484</v>
+        <v>87</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
       </c>
       <c r="N10" s="7">
-        <v>111971</v>
+        <v>105111</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>488</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,46 +7331,46 @@
         <v>293</v>
       </c>
       <c r="D11" s="7">
-        <v>272633</v>
+        <v>268706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>489</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
       </c>
       <c r="I11" s="7">
-        <v>310337</v>
+        <v>290811</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>492</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>719</v>
       </c>
       <c r="N11" s="7">
-        <v>582969</v>
+        <v>559518</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>509</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,7 +7382,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321657</v>
+        <v>315501</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7358,7 +7397,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7373,7 +7412,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694940</v>
+        <v>664629</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7396,46 +7435,46 @@
         <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>53533</v>
+        <v>50337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
       </c>
       <c r="I13" s="7">
-        <v>67738</v>
+        <v>62981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
       </c>
       <c r="N13" s="7">
-        <v>121271</v>
+        <v>113318</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,46 +7486,46 @@
         <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>268707</v>
+        <v>262220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>464</v>
       </c>
       <c r="I14" s="7">
-        <v>360818</v>
+        <v>412737</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
       </c>
       <c r="N14" s="7">
-        <v>629525</v>
+        <v>674956</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,7 +7537,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7513,7 +7552,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7528,7 +7567,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7551,46 +7590,46 @@
         <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>40945</v>
+        <v>37178</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
       </c>
       <c r="I16" s="7">
-        <v>58711</v>
+        <v>53389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>99656</v>
+        <v>90567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,46 +7641,46 @@
         <v>210</v>
       </c>
       <c r="D17" s="7">
-        <v>155803</v>
+        <v>141564</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
       </c>
       <c r="I17" s="7">
-        <v>171830</v>
+        <v>154047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="M17" s="7">
         <v>555</v>
       </c>
       <c r="N17" s="7">
-        <v>327633</v>
+        <v>295611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,7 +7692,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7668,7 +7707,7 @@
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230541</v>
+        <v>207436</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7683,7 +7722,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>427289</v>
+        <v>386178</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7706,46 +7745,46 @@
         <v>98</v>
       </c>
       <c r="D19" s="7">
-        <v>58694</v>
+        <v>56024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
       </c>
       <c r="I19" s="7">
-        <v>48587</v>
+        <v>45307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>354</v>
+        <v>548</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
       </c>
       <c r="N19" s="7">
-        <v>107281</v>
+        <v>101331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>539</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,46 +7796,46 @@
         <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>218529</v>
+        <v>213612</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
       </c>
       <c r="I20" s="7">
-        <v>226318</v>
+        <v>211080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>556</v>
       </c>
       <c r="M20" s="7">
         <v>622</v>
       </c>
       <c r="N20" s="7">
-        <v>444846</v>
+        <v>424692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,7 +7847,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7823,7 +7862,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7838,7 +7877,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7861,46 +7900,46 @@
         <v>117</v>
       </c>
       <c r="D22" s="7">
-        <v>102505</v>
+        <v>98693</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
       </c>
       <c r="I22" s="7">
-        <v>238952</v>
+        <v>323246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>320</v>
       </c>
       <c r="N22" s="7">
-        <v>341456</v>
+        <v>421939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,46 +7951,46 @@
         <v>476</v>
       </c>
       <c r="D23" s="7">
-        <v>519331</v>
+        <v>519959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="H23" s="7">
         <v>751</v>
       </c>
       <c r="I23" s="7">
-        <v>562297</v>
+        <v>523290</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="M23" s="7">
         <v>1227</v>
       </c>
       <c r="N23" s="7">
-        <v>1081629</v>
+        <v>1043249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,7 +8002,7 @@
         <v>593</v>
       </c>
       <c r="D24" s="7">
-        <v>621836</v>
+        <v>618652</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7978,7 +8017,7 @@
         <v>954</v>
       </c>
       <c r="I24" s="7">
-        <v>801249</v>
+        <v>846536</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7993,7 +8032,7 @@
         <v>1547</v>
       </c>
       <c r="N24" s="7">
-        <v>1423085</v>
+        <v>1465188</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8016,46 +8055,46 @@
         <v>107</v>
       </c>
       <c r="D25" s="7">
-        <v>90917</v>
+        <v>77316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>576</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
       </c>
       <c r="I25" s="7">
-        <v>121889</v>
+        <v>101305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>579</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>569</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>276</v>
       </c>
       <c r="N25" s="7">
-        <v>212806</v>
+        <v>178621</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,46 +8106,46 @@
         <v>655</v>
       </c>
       <c r="D26" s="7">
-        <v>768511</v>
+        <v>851404</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>584</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>891</v>
       </c>
       <c r="I26" s="7">
-        <v>743147</v>
+        <v>613542</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>574</v>
+        <v>25</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>575</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>1546</v>
       </c>
       <c r="N26" s="7">
-        <v>1511658</v>
+        <v>1464946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,7 +8157,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8133,7 +8172,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865036</v>
+        <v>714847</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8148,7 +8187,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724464</v>
+        <v>1643567</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8171,46 +8210,46 @@
         <v>628</v>
       </c>
       <c r="D28" s="7">
-        <v>493522</v>
+        <v>464651</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>579</v>
+        <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>1073</v>
       </c>
       <c r="I28" s="7">
-        <v>714935</v>
+        <v>756318</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>313</v>
+        <v>591</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="M28" s="7">
         <v>1701</v>
       </c>
       <c r="N28" s="7">
-        <v>1208457</v>
+        <v>1220969</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>585</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8222,46 +8261,46 @@
         <v>2739</v>
       </c>
       <c r="D29" s="7">
-        <v>2883192</v>
+        <v>2987129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>587</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>589</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>4276</v>
       </c>
       <c r="I29" s="7">
-        <v>3082661</v>
+        <v>2896537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>7015</v>
       </c>
       <c r="N29" s="7">
-        <v>5965853</v>
+        <v>5883666</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,7 +8312,7 @@
         <v>3367</v>
       </c>
       <c r="D30" s="7">
-        <v>3376714</v>
+        <v>3451780</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8288,7 +8327,7 @@
         <v>5349</v>
       </c>
       <c r="I30" s="7">
-        <v>3797596</v>
+        <v>3652855</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8303,7 +8342,7 @@
         <v>8716</v>
       </c>
       <c r="N30" s="7">
-        <v>7174310</v>
+        <v>7104635</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
